--- a/Modelos.xlsx
+++ b/Modelos.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Documents\repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD68B45-EA08-4DCB-868F-1DD988E0AC33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDBC8340-C040-4D02-A45A-7AAF1EA77CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{A07FAE3D-D834-404A-8BF1-3BEB6D733510}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{A07FAE3D-D834-404A-8BF1-3BEB6D733510}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="81">
   <si>
     <t>Capitulo 0</t>
   </si>
@@ -184,6 +185,90 @@
   </si>
   <si>
     <t>Artifact20</t>
+  </si>
+  <si>
+    <t>Artefac 1</t>
+  </si>
+  <si>
+    <t>Artefac 2</t>
+  </si>
+  <si>
+    <t>Artefac 3</t>
+  </si>
+  <si>
+    <t>Artefac 4</t>
+  </si>
+  <si>
+    <t>Artefac 5</t>
+  </si>
+  <si>
+    <t>Artefac 6</t>
+  </si>
+  <si>
+    <t>Artefac 7</t>
+  </si>
+  <si>
+    <t>modelo 1 (PA)</t>
+  </si>
+  <si>
+    <t>modelo 2 (PA)</t>
+  </si>
+  <si>
+    <t>modelo 3 (PA)</t>
+  </si>
+  <si>
+    <t>modelo 4 (PA)</t>
+  </si>
+  <si>
+    <t>modelo 5 (PA)</t>
+  </si>
+  <si>
+    <t>modelo 6 (PA)</t>
+  </si>
+  <si>
+    <t>modelo 7 (PA)</t>
+  </si>
+  <si>
+    <t>modelo 8 (PA)</t>
+  </si>
+  <si>
+    <t>Codigo Examen</t>
+  </si>
+  <si>
+    <t>modelo 9 (ALE)</t>
+  </si>
+  <si>
+    <t>modelo 10 (ALE)</t>
+  </si>
+  <si>
+    <t>modelo 11 (ALE)</t>
+  </si>
+  <si>
+    <t>modelo 12 (ALE)</t>
+  </si>
+  <si>
+    <t>modelo 13 (ALE)</t>
+  </si>
+  <si>
+    <t>modelo 14 (ALE)</t>
+  </si>
+  <si>
+    <t>modelo 15 (ALE)</t>
+  </si>
+  <si>
+    <t>modelo 16 (ALE)</t>
+  </si>
+  <si>
+    <t>modelo 17 (ALE)</t>
+  </si>
+  <si>
+    <t>modelo 18 (ALE)</t>
+  </si>
+  <si>
+    <t>modelo 19 (ALE)</t>
+  </si>
+  <si>
+    <t>modelo 20 (ALE)</t>
   </si>
 </sst>
 </file>
@@ -239,10 +324,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -559,7 +653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCF2E9AA-3D55-48B4-9ED4-4B70429A41EF}">
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C38" sqref="C38:C41"/>
     </sheetView>
   </sheetViews>
@@ -1774,4 +1868,735 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84E8CF86-06AB-4A11-91E0-CA9B8C77B06C}">
+  <dimension ref="A2:I22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5">
+        <v>17</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <v>9</v>
+      </c>
+      <c r="G3" s="5">
+        <v>17</v>
+      </c>
+      <c r="H3" s="5">
+        <v>25</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I10" si="0">_xlfn.CONCAT(IF(B3&lt;10,_xlfn.CONCAT("0",B3),B3),IF(C3&lt;10,_xlfn.CONCAT("0",C3),C3),D3,IF(E3&lt;10,_xlfn.CONCAT("0",E3),E3),IF(F3&lt;10,_xlfn.CONCAT("0",F3),F3),G3,H3)</f>
+        <v>01091701091725</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5">
+        <v>18</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2</v>
+      </c>
+      <c r="F4" s="5">
+        <v>10</v>
+      </c>
+      <c r="G4" s="5">
+        <v>18</v>
+      </c>
+      <c r="H4" s="5">
+        <v>26</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="0"/>
+        <v>02101802101826</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5">
+        <v>11</v>
+      </c>
+      <c r="D5" s="5">
+        <v>19</v>
+      </c>
+      <c r="E5" s="5">
+        <v>3</v>
+      </c>
+      <c r="F5" s="5">
+        <v>11</v>
+      </c>
+      <c r="G5" s="5">
+        <v>19</v>
+      </c>
+      <c r="H5" s="5">
+        <v>27</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="0"/>
+        <v>03111903111927</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5">
+        <v>12</v>
+      </c>
+      <c r="D6" s="5">
+        <v>20</v>
+      </c>
+      <c r="E6" s="5">
+        <v>4</v>
+      </c>
+      <c r="F6" s="5">
+        <v>12</v>
+      </c>
+      <c r="G6" s="5">
+        <v>20</v>
+      </c>
+      <c r="H6" s="5">
+        <v>28</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="0"/>
+        <v>04122004122028</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5">
+        <v>13</v>
+      </c>
+      <c r="D7" s="5">
+        <v>21</v>
+      </c>
+      <c r="E7" s="5">
+        <v>5</v>
+      </c>
+      <c r="F7" s="5">
+        <v>13</v>
+      </c>
+      <c r="G7" s="5">
+        <v>21</v>
+      </c>
+      <c r="H7" s="5">
+        <v>29</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="0"/>
+        <v>05132105132129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5">
+        <v>14</v>
+      </c>
+      <c r="D8" s="5">
+        <v>22</v>
+      </c>
+      <c r="E8" s="5">
+        <v>6</v>
+      </c>
+      <c r="F8" s="5">
+        <v>14</v>
+      </c>
+      <c r="G8" s="5">
+        <v>22</v>
+      </c>
+      <c r="H8" s="5">
+        <v>30</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="0"/>
+        <v>06142206142230</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="5">
+        <v>7</v>
+      </c>
+      <c r="C9" s="5">
+        <v>15</v>
+      </c>
+      <c r="D9" s="5">
+        <v>23</v>
+      </c>
+      <c r="E9" s="5">
+        <v>7</v>
+      </c>
+      <c r="F9" s="5">
+        <v>15</v>
+      </c>
+      <c r="G9" s="5">
+        <v>23</v>
+      </c>
+      <c r="H9" s="5">
+        <v>31</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>07152307152331</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="5">
+        <v>8</v>
+      </c>
+      <c r="C10" s="5">
+        <v>16</v>
+      </c>
+      <c r="D10" s="5">
+        <v>24</v>
+      </c>
+      <c r="E10" s="5">
+        <v>8</v>
+      </c>
+      <c r="F10" s="5">
+        <v>16</v>
+      </c>
+      <c r="G10" s="5">
+        <v>24</v>
+      </c>
+      <c r="H10" s="5">
+        <v>32</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v>08162408162432</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="4">
+        <f ca="1">RANDBETWEEN(1,8)</f>
+        <v>6</v>
+      </c>
+      <c r="C11" s="4">
+        <f ca="1">RANDBETWEEN(9,16)</f>
+        <v>12</v>
+      </c>
+      <c r="D11" s="4">
+        <f ca="1">RANDBETWEEN(17,24)</f>
+        <v>20</v>
+      </c>
+      <c r="E11" s="4">
+        <f ca="1">RANDBETWEEN(1,8)</f>
+        <v>4</v>
+      </c>
+      <c r="F11" s="4">
+        <f ca="1">RANDBETWEEN(9,16)</f>
+        <v>14</v>
+      </c>
+      <c r="G11" s="4">
+        <f ca="1">RANDBETWEEN(17,24)</f>
+        <v>22</v>
+      </c>
+      <c r="H11" s="4">
+        <f ca="1">RANDBETWEEN(25,32)</f>
+        <v>27</v>
+      </c>
+      <c r="I11" t="str">
+        <f ca="1">_xlfn.CONCAT(IF(B11&lt;10,_xlfn.CONCAT("0",B11),B11),IF(C11&lt;10,_xlfn.CONCAT("0",C11),C11),D11,IF(E11&lt;10,_xlfn.CONCAT("0",E11),E11),IF(F11&lt;10,_xlfn.CONCAT("0",F11),F11),G11,H11)</f>
+        <v>06122004142227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="4">
+        <f t="shared" ref="B12:B22" ca="1" si="1">RANDBETWEEN(1,8)</f>
+        <v>6</v>
+      </c>
+      <c r="C12" s="4">
+        <f t="shared" ref="C12:C22" ca="1" si="2">RANDBETWEEN(9,16)</f>
+        <v>12</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" ref="D12:D22" ca="1" si="3">RANDBETWEEN(17,24)</f>
+        <v>22</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" ref="E12:E22" ca="1" si="4">RANDBETWEEN(1,8)</f>
+        <v>7</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" ref="F12:F22" ca="1" si="5">RANDBETWEEN(9,16)</f>
+        <v>12</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" ref="G12:G22" ca="1" si="6">RANDBETWEEN(17,24)</f>
+        <v>20</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" ref="H12:H22" ca="1" si="7">RANDBETWEEN(25,32)</f>
+        <v>31</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" ref="I12:I20" ca="1" si="8">_xlfn.CONCAT(IF(B12&lt;10,_xlfn.CONCAT("0",B12),B12),IF(C12&lt;10,_xlfn.CONCAT("0",C12),C12),D12,IF(E12&lt;10,_xlfn.CONCAT("0",E12),E12),IF(F12&lt;10,_xlfn.CONCAT("0",F12),F12),G12,H12)</f>
+        <v>06122207122031</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C13" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" ca="1" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>26</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>07092206152026</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C14" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" ca="1" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="G14" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>29</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>08101707142229</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C15" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" ca="1" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>31</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>06091807132031</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C16" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>31</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>05131904091831</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C17" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="E17" s="4">
+        <f t="shared" ca="1" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="G17" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>25</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>06092006112025</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C18" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="E18" s="4">
+        <f t="shared" ca="1" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="G18" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="H18" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>28</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>02151807141728</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C19" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="H19" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>31</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>05101705152031</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C20" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="D20" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="E20" s="4">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="F20" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="G20" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="H20" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>25</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>07101904162425</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C21" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="D21" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="E21" s="4">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F21" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="G21" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="H21" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>30</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" ref="I21:I22" ca="1" si="9">_xlfn.CONCAT(IF(B21&lt;10,_xlfn.CONCAT("0",B21),B21),IF(C21&lt;10,_xlfn.CONCAT("0",C21),C21),D21,IF(E21&lt;10,_xlfn.CONCAT("0",E21),E21),IF(F21&lt;10,_xlfn.CONCAT("0",F21),F21),G21,H21)</f>
+        <v>03131901152430</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C22" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="D22" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="E22" s="4">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F22" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="G22" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="H22" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>28</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>06092301142128</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>